--- a/data/trans_orig/P1431-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEC2232D-32ED-45F8-8371-E1C60D785AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{065D62A4-8D55-408C-8016-08404ED45E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF3287ED-B05C-4AE4-9B9B-3BBA5D36AC36}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4406497-B3B5-4566-868B-B7A27A75D93D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="236">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>4,02%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,02%</t>
+    <t>2,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>99,21%</t>
   </si>
   <si>
-    <t>95,98%</t>
+    <t>96,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,7 +124,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>97,98%</t>
+    <t>97,72%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -139,22 +139,19 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -163,25 +160,22 @@
     <t>98,05%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>99,07%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>98,81%</t>
+    <t>98,82%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -196,64 +190,373 @@
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -262,22 +565,25 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -286,382 +592,82 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,08%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>98,78%</t>
@@ -670,7 +676,7 @@
     <t>98,53%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,21%</t>
   </si>
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1151,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936BCC07-1BB6-4BA7-9D57-9659B770E192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FE1F2F-DD53-408A-BB73-87E2D92EF673}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1553,7 +1559,7 @@
         <v>36</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -1565,10 +1571,10 @@
         <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,13 +1589,13 @@
         <v>576251</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>540</v>
@@ -1598,13 +1604,13 @@
         <v>574135</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>1081</v>
@@ -1616,10 +1622,10 @@
         <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1675,7 +1681,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1693,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1708,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1723,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,13 +1744,13 @@
         <v>13648</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -1756,10 +1762,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -1768,13 +1774,13 @@
         <v>32988</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,13 +1795,13 @@
         <v>1004299</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>920</v>
@@ -1804,13 +1810,13 @@
         <v>1009633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>1844</v>
@@ -1819,13 +1825,13 @@
         <v>2013932</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,7 +1887,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1899,37 +1905,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1950,13 @@
         <v>9481</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1959,13 +1965,13 @@
         <v>8067</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -1974,13 +1980,13 @@
         <v>17549</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +2001,13 @@
         <v>748142</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>696</v>
@@ -2010,13 +2016,13 @@
         <v>767998</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>1376</v>
@@ -2025,13 +2031,13 @@
         <v>1516140</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,7 +2093,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2105,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2120,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2135,7 +2141,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2156,13 @@
         <v>5476</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -2165,13 +2171,13 @@
         <v>14585</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -2180,13 +2186,13 @@
         <v>20060</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2207,13 @@
         <v>942263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>989</v>
@@ -2216,13 +2222,13 @@
         <v>1037316</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>1894</v>
@@ -2231,13 +2237,13 @@
         <v>1979580</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2326,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2341,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2362,13 @@
         <v>40966</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -2371,13 +2377,13 @@
         <v>53002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -2386,13 +2392,13 @@
         <v>93968</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2413,13 @@
         <v>3385813</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>3244</v>
@@ -2422,28 +2428,28 @@
         <v>3500988</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>6415</v>
       </c>
       <c r="N26" s="7">
-        <v>6886800</v>
+        <v>6886801</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2491,7 @@
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -2499,7 +2505,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF96E9BB-5747-4672-9B48-BC4C3DFEB646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755C1398-59C6-4B8A-A7EC-D91121DBB834}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2537,7 +2543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2650,37 +2656,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2701,13 @@
         <v>4846</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2710,13 +2716,13 @@
         <v>1929</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -2725,13 +2731,13 @@
         <v>6775</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2752,13 @@
         <v>111700</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H6" s="7">
         <v>113</v>
@@ -2761,10 +2767,10 @@
         <v>111431</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -2776,13 +2782,13 @@
         <v>223131</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,7 +2862,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2886,7 +2892,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2907,13 @@
         <v>6473</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -2916,13 +2922,13 @@
         <v>14300</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -2931,13 +2937,13 @@
         <v>20773</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2958,13 @@
         <v>551781</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>538</v>
@@ -2967,13 +2973,13 @@
         <v>545179</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>1070</v>
@@ -2988,7 +2994,7 @@
         <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3050,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3062,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3077,7 +3083,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3092,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,7 +3113,7 @@
         <v>13589</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>161</v>
@@ -3122,13 +3128,13 @@
         <v>20101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3137,13 +3143,13 @@
         <v>33690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3164,7 @@
         <v>1008842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>166</v>
@@ -3173,13 +3179,13 @@
         <v>1022812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>1897</v>
@@ -3188,13 +3194,13 @@
         <v>2031654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,7 +3256,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3268,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3283,22 +3289,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3319,13 @@
         <v>9355</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3328,13 +3334,13 @@
         <v>6953</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3382,10 +3388,10 @@
         <v>184</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" s="7">
         <v>1417</v>
@@ -3394,13 +3400,13 @@
         <v>1528255</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,7 +3462,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3474,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3489,7 +3495,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3504,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3525,13 @@
         <v>11208</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3534,13 +3540,13 @@
         <v>13543</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -3549,13 +3555,13 @@
         <v>24751</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3576,13 @@
         <v>926359</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7">
         <v>947</v>
@@ -3585,13 +3591,13 @@
         <v>1030236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>1868</v>
@@ -3600,13 +3606,13 @@
         <v>1956595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3695,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3710,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3731,13 @@
         <v>45472</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -3740,13 +3746,13 @@
         <v>56826</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -3755,13 +3761,13 @@
         <v>102298</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3782,13 @@
         <v>3348878</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H26" s="7">
         <v>3287</v>
@@ -3791,13 +3797,13 @@
         <v>3487716</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M26" s="7">
         <v>6473</v>
@@ -3806,13 +3812,13 @@
         <v>6836594</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3874,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3889,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0AAC79-0D84-4724-AC3D-35922B26E3DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862A49CE-FD3B-4368-9A17-E8828BFDB79B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3906,7 +3912,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4016,7 +4022,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -4046,7 +4052,7 @@
         <v>24</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -4070,7 +4076,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4100,7 +4106,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4127,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4151,7 +4157,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,7 +4228,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4237,7 +4243,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4252,7 +4258,7 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -4276,7 +4282,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4291,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4306,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,7 +4333,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4342,7 +4348,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4357,7 +4363,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4419,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4428,7 +4434,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>26</v>
@@ -4443,7 +4449,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>26</v>
@@ -4458,7 +4464,7 @@
         <v>24</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>26</v>
@@ -4482,7 +4488,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4497,7 +4503,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4512,7 +4518,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,7 +4539,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4548,7 +4554,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4563,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,7 +4625,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4634,7 +4640,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -4649,7 +4655,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -4664,7 +4670,7 @@
         <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -4688,7 +4694,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4703,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4718,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,7 +4745,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4754,7 +4760,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4769,7 +4775,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,7 +4831,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4840,7 +4846,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4855,7 +4861,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -4870,7 +4876,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4894,7 +4900,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4909,7 +4915,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4924,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +4951,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4960,7 +4966,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4975,7 +4981,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,7 +5052,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>26</v>
@@ -5061,7 +5067,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>26</v>
@@ -5076,7 +5082,7 @@
         <v>24</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>26</v>
@@ -5100,7 +5106,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5115,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5130,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,7 +5157,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5166,7 +5172,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5181,7 +5187,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,7 +5243,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1431-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{065D62A4-8D55-408C-8016-08404ED45E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31CF10D0-08DF-4105-963A-2704E490BB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4406497-B3B5-4566-868B-B7A27A75D93D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E22D7E81-1EEA-4DE9-862D-AE1BD6C17823}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="233">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -94,13 +94,13 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,92%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>99,21%</t>
   </si>
   <si>
-    <t>96,72%</t>
+    <t>96,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,10 +124,10 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -139,546 +139,543 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>97,91%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -688,16 +685,10 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>99,81%</t>
   </si>
   <si>
     <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
   </si>
   <si>
     <t>0,12%</t>
@@ -1157,7 +1148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FE1F2F-DD53-408A-BB73-87E2D92EF673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DC47A7-023B-4584-8D4B-7BAB4B88EBA2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1559,7 +1550,7 @@
         <v>36</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -1571,10 +1562,10 @@
         <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,10 +1598,10 @@
         <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>1081</v>
@@ -1622,7 +1613,7 @@
         <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>45</v>
@@ -1980,13 +1971,13 @@
         <v>17549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +1992,13 @@
         <v>748142</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>696</v>
@@ -2016,13 +2007,13 @@
         <v>767998</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>1376</v>
@@ -2031,13 +2022,13 @@
         <v>1516140</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,7 +2084,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2111,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2126,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2156,13 +2147,13 @@
         <v>5476</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -2171,13 +2162,13 @@
         <v>14585</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -2186,13 +2177,13 @@
         <v>20060</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2198,13 @@
         <v>942263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>989</v>
@@ -2222,13 +2213,13 @@
         <v>1037316</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>1894</v>
@@ -2237,13 +2228,13 @@
         <v>1979580</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2332,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2347,7 +2338,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2353,13 @@
         <v>40966</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -2377,13 +2368,13 @@
         <v>53002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -2392,13 +2383,13 @@
         <v>93968</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2404,13 @@
         <v>3385813</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>3244</v>
@@ -2428,28 +2419,28 @@
         <v>3500988</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>6415</v>
       </c>
       <c r="N26" s="7">
-        <v>6886801</v>
+        <v>6886800</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2482,7 @@
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980769</v>
+        <v>6980768</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -2505,7 +2496,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +2517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755C1398-59C6-4B8A-A7EC-D91121DBB834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C5DD1-CFD8-4A01-AA67-3EBA086013CF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2543,7 +2534,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2656,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2671,7 +2662,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2686,7 +2677,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,10 +2725,10 @@
         <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2743,13 @@
         <v>111700</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7">
         <v>113</v>
@@ -2767,10 +2758,10 @@
         <v>111431</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -2782,13 +2773,13 @@
         <v>223131</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2892,7 +2883,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2898,13 @@
         <v>6473</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -2922,13 +2913,13 @@
         <v>14300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -2937,13 +2928,13 @@
         <v>20773</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2949,13 @@
         <v>551781</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>538</v>
@@ -2973,13 +2964,13 @@
         <v>545179</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>1070</v>
@@ -2988,13 +2979,13 @@
         <v>1096960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3104,13 @@
         <v>13589</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3128,13 +3119,13 @@
         <v>20101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3143,13 +3134,13 @@
         <v>33690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3155,13 @@
         <v>1008842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>959</v>
@@ -3179,13 +3170,13 @@
         <v>1022812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>1897</v>
@@ -3194,13 +3185,13 @@
         <v>2031654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3304,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3310,13 @@
         <v>9355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3334,13 +3325,13 @@
         <v>6953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3349,13 +3340,13 @@
         <v>16308</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3361,13 @@
         <v>750197</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H18" s="7">
         <v>730</v>
@@ -3385,13 +3376,13 @@
         <v>778058</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M18" s="7">
         <v>1417</v>
@@ -3400,13 +3391,13 @@
         <v>1528255</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,7 +3453,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3480,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3525,13 +3516,13 @@
         <v>11208</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3540,13 +3531,13 @@
         <v>13543</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -3558,10 +3549,10 @@
         <v>69</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3567,13 @@
         <v>926359</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>947</v>
@@ -3591,13 +3582,13 @@
         <v>1030236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
         <v>1868</v>
@@ -3606,13 +3597,13 @@
         <v>1956595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3701,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3716,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,10 +3725,10 @@
         <v>49</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -3746,13 +3737,13 @@
         <v>56826</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -3761,13 +3752,13 @@
         <v>102298</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,10 +3776,10 @@
         <v>57</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>3287</v>
@@ -3797,13 +3788,13 @@
         <v>3487716</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>6473</v>
@@ -3815,10 +3806,10 @@
         <v>211</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,7 +3865,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862A49CE-FD3B-4368-9A17-E8828BFDB79B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD434E8-6C2B-47AC-8A45-9A237AED10D7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3912,7 +3903,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4052,7 +4043,7 @@
         <v>24</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -4106,7 +4097,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,7 +4219,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4243,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4258,7 +4249,7 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -4282,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4297,7 +4288,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4312,7 +4303,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4348,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4363,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,7 +4425,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>26</v>
@@ -4449,7 +4440,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>26</v>
@@ -4464,7 +4455,7 @@
         <v>24</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>26</v>
@@ -4503,7 +4494,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4518,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4569,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,7 +4631,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -4655,7 +4646,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -4670,7 +4661,7 @@
         <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -4709,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4724,7 +4715,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4775,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,7 +4822,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4846,7 +4837,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4861,7 +4852,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -4876,7 +4867,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4900,7 +4891,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4915,7 +4906,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4930,7 +4921,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +4942,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4966,7 +4957,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4981,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,7 +5043,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>26</v>
@@ -5067,7 +5058,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>26</v>
@@ -5076,13 +5067,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>26</v>
@@ -5106,7 +5097,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5121,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5136,7 +5127,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,7 +5148,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5172,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5187,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,7 +5220,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -5243,7 +5234,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1431-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C61A4ACF-1CCC-460B-943B-DCF8C1588469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5A2F42-99E6-4DD0-88E5-B2302B499EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{606283CA-0E19-44F6-B29B-C0990921DF4B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A76F136E-FDD2-435C-B7B4-8AFC08A06B77}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="172">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -66,502 +66,448 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
   </si>
   <si>
     <t>99,19%</t>
@@ -1018,8 +964,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F98B0A7-ECC4-432B-819F-F0D1CDD26E04}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B58C87C-A5E7-4D84-B569-1B2C84FF975B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1136,10 +1082,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>909</v>
+        <v>12362</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1151,85 +1097,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>11010</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>909</v>
+        <v>23372</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>121</v>
+        <v>662</v>
       </c>
       <c r="D5" s="7">
-        <v>114856</v>
+        <v>691107</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>639</v>
       </c>
       <c r="I5" s="7">
-        <v>111905</v>
+        <v>686040</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>220</v>
+        <v>1301</v>
       </c>
       <c r="N5" s="7">
-        <v>226761</v>
+        <v>1377147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,153 +1184,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>11453</v>
+        <v>13648</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>11010</v>
+        <v>19340</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>22462</v>
+        <v>32988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>541</v>
+        <v>924</v>
       </c>
       <c r="D8" s="7">
-        <v>576251</v>
+        <v>1004299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="I8" s="7">
-        <v>574135</v>
+        <v>1009633</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1081</v>
+        <v>1844</v>
       </c>
       <c r="N8" s="7">
-        <v>1150387</v>
+        <v>2013933</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,153 +1339,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>13648</v>
+        <v>9481</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>19340</v>
+        <v>8067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>32988</v>
+        <v>17549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>924</v>
+        <v>680</v>
       </c>
       <c r="D11" s="7">
-        <v>1004299</v>
+        <v>748142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>920</v>
+        <v>696</v>
       </c>
       <c r="I11" s="7">
-        <v>1009633</v>
+        <v>767998</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1844</v>
+        <v>1376</v>
       </c>
       <c r="N11" s="7">
-        <v>2013932</v>
+        <v>1516140</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,153 +1494,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>776065</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1533689</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>9481</v>
+        <v>5476</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>8067</v>
+        <v>14585</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>17549</v>
+        <v>20060</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>680</v>
+        <v>905</v>
       </c>
       <c r="D14" s="7">
-        <v>748142</v>
+        <v>942263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>696</v>
+        <v>989</v>
       </c>
       <c r="I14" s="7">
-        <v>767998</v>
+        <v>1037316</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1376</v>
+        <v>1894</v>
       </c>
       <c r="N14" s="7">
-        <v>1516140</v>
+        <v>1979580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,153 +1649,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>776065</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1533689</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>5476</v>
+        <v>40966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I16" s="7">
-        <v>14585</v>
+        <v>53002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>20060</v>
+        <v>93968</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>905</v>
+        <v>3171</v>
       </c>
       <c r="D17" s="7">
-        <v>942263</v>
+        <v>3385813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
-        <v>989</v>
+        <v>3244</v>
       </c>
       <c r="I17" s="7">
-        <v>1037316</v>
+        <v>3500988</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>1894</v>
+        <v>6415</v>
       </c>
       <c r="N17" s="7">
-        <v>1979580</v>
+        <v>6886801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,217 +1804,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553990</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980769</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>38</v>
-      </c>
-      <c r="D19" s="7">
-        <v>40966</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="7">
-        <v>51</v>
-      </c>
-      <c r="I19" s="7">
-        <v>53002</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
-      <c r="M19" s="7">
-        <v>89</v>
-      </c>
-      <c r="N19" s="7">
-        <v>93968</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3171</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3385813</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3244</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3500988</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6415</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6886800</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553990</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980768</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2081,8 +1871,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28517564-932F-4F82-A55B-3E1E007F55CD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A174488-A9A9-495A-BF20-32E37F7B7096}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2098,7 +1888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2199,100 +1989,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>4846</v>
+        <v>11319</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>1929</v>
+        <v>16229</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>6775</v>
+        <v>27548</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>640</v>
       </c>
       <c r="D5" s="7">
-        <v>111700</v>
+        <v>663481</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
+        <v>651</v>
+      </c>
+      <c r="I5" s="7">
+        <v>656610</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="7">
-        <v>111431</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
-        <v>221</v>
+        <v>1291</v>
       </c>
       <c r="N5" s="7">
-        <v>223131</v>
+        <v>1320091</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,153 +2091,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>6473</v>
+        <v>13589</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>14300</v>
+        <v>20101</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N7" s="7">
-        <v>20773</v>
+        <v>33690</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>532</v>
+        <v>938</v>
       </c>
       <c r="D8" s="7">
-        <v>551781</v>
+        <v>1008842</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
-        <v>538</v>
+        <v>959</v>
       </c>
       <c r="I8" s="7">
-        <v>545179</v>
+        <v>1022812</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
-        <v>1070</v>
+        <v>1897</v>
       </c>
       <c r="N8" s="7">
-        <v>1096960</v>
+        <v>2031654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,153 +2246,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>13589</v>
+        <v>9355</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>20101</v>
+        <v>6953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>33690</v>
+        <v>16308</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>938</v>
+        <v>687</v>
       </c>
       <c r="D11" s="7">
-        <v>1008842</v>
+        <v>750197</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="7">
+        <v>730</v>
+      </c>
+      <c r="I11" s="7">
+        <v>778058</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1417</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1528255</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="7">
-        <v>959</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1022812</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1897</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2031654</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,153 +2401,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>9355</v>
+        <v>11208</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13543</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="7">
+        <v>23</v>
+      </c>
+      <c r="N13" s="7">
+        <v>24751</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6953</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
-      <c r="N13" s="7">
-        <v>16308</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>687</v>
+        <v>921</v>
       </c>
       <c r="D14" s="7">
-        <v>750197</v>
+        <v>926359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>730</v>
+        <v>947</v>
       </c>
       <c r="I14" s="7">
-        <v>778058</v>
+        <v>1030236</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="M14" s="7">
-        <v>1417</v>
+        <v>1868</v>
       </c>
       <c r="N14" s="7">
-        <v>1528255</v>
+        <v>1956595</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,153 +2556,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7">
-        <v>11208</v>
+        <v>45472</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
+        <v>51</v>
+      </c>
+      <c r="I16" s="7">
+        <v>56826</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="7">
         <v>96</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13543</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M16" s="7">
-        <v>23</v>
-      </c>
       <c r="N16" s="7">
-        <v>24751</v>
+        <v>102298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>921</v>
+        <v>3186</v>
       </c>
       <c r="D17" s="7">
-        <v>926359</v>
+        <v>3348878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
-        <v>947</v>
+        <v>3287</v>
       </c>
       <c r="I17" s="7">
-        <v>1030236</v>
+        <v>3487716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
-        <v>1868</v>
+        <v>6473</v>
       </c>
       <c r="N17" s="7">
-        <v>1956595</v>
+        <v>6836594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,217 +2711,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>45</v>
-      </c>
-      <c r="D19" s="7">
-        <v>45472</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="7">
-        <v>51</v>
-      </c>
-      <c r="I19" s="7">
-        <v>56826</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M19" s="7">
-        <v>96</v>
-      </c>
-      <c r="N19" s="7">
-        <v>102298</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3186</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3348878</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3287</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3487716</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6473</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6836594</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
